--- a/data/trans_orig/P14B34-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Edad-trans_orig.xlsx
@@ -1645,19 +1645,19 @@
         <v>8155</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3773</v>
+        <v>3935</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15027</v>
+        <v>15497</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01898977234557662</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008784988582378037</v>
+        <v>0.009163875275311149</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03499402513309997</v>
+        <v>0.03608783611347053</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>421274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>414402</v>
+        <v>413932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>425656</v>
+        <v>425494</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9810102276544234</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9650059748669002</v>
+        <v>0.9639121638865296</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9912150114176222</v>
+        <v>0.9908361247246888</v>
       </c>
     </row>
     <row r="18">
@@ -1736,19 +1736,19 @@
         <v>24635</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15562</v>
+        <v>16379</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35704</v>
+        <v>35362</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07952147819484448</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0502354150700337</v>
+        <v>0.05287197748297009</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.115253479716168</v>
+        <v>0.1141482377030343</v>
       </c>
     </row>
     <row r="20">
@@ -1765,19 +1765,19 @@
         <v>285151</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>274082</v>
+        <v>274424</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>294224</v>
+        <v>293407</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9204785218051555</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8847465202838323</v>
+        <v>0.8858517622969659</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9497645849299665</v>
+        <v>0.9471280225170299</v>
       </c>
     </row>
     <row r="21">
@@ -1827,19 +1827,19 @@
         <v>24725</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16116</v>
+        <v>15242</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36368</v>
+        <v>36939</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1002595731401164</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06534996831846324</v>
+        <v>0.06180536145320946</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.147473658889093</v>
+        <v>0.1497857481679555</v>
       </c>
     </row>
     <row r="23">
@@ -1856,19 +1856,19 @@
         <v>221884</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210241</v>
+        <v>209670</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>230493</v>
+        <v>231367</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8997404268598836</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.852526341110907</v>
+        <v>0.8502142518320445</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9346500316815368</v>
+        <v>0.9381946385467905</v>
       </c>
     </row>
     <row r="24">
@@ -1918,19 +1918,19 @@
         <v>57514</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44541</v>
+        <v>43511</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>74340</v>
+        <v>77055</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01679967474789959</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01301033410330223</v>
+        <v>0.01270930758254853</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02171424533858039</v>
+        <v>0.02250756487543995</v>
       </c>
     </row>
     <row r="26">
@@ -1947,19 +1947,19 @@
         <v>3366023</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3349197</v>
+        <v>3346482</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3378996</v>
+        <v>3380026</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9832003252521004</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9782857546614196</v>
+        <v>0.9774924351245605</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9869896658966978</v>
+        <v>0.9872906924174516</v>
       </c>
     </row>
     <row r="27">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4840</v>
+        <v>5246</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001567667366259456</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007233615973136751</v>
+        <v>0.007840818624285194</v>
       </c>
     </row>
     <row r="11">
@@ -2309,7 +2309,7 @@
         <v>668048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>664257</v>
+        <v>663851</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -2318,7 +2318,7 @@
         <v>0.9984323326337405</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9927663840268635</v>
+        <v>0.9921591813757148</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7245</v>
+        <v>7185</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002231261071679839</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01121485061633385</v>
+        <v>0.0111222348066541</v>
       </c>
     </row>
     <row r="14">
@@ -2400,7 +2400,7 @@
         <v>644606</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>638803</v>
+        <v>638863</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>646048</v>
@@ -2409,7 +2409,7 @@
         <v>0.9977687389283202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.988785149383666</v>
+        <v>0.9888777651933458</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2462,19 +2462,19 @@
         <v>6208</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2109</v>
+        <v>2178</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12378</v>
+        <v>13408</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01298947826113779</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004413687634484431</v>
+        <v>0.00455756893201485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02589900496917875</v>
+        <v>0.02805511584589055</v>
       </c>
     </row>
     <row r="17">
@@ -2491,19 +2491,19 @@
         <v>471710</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>465540</v>
+        <v>464510</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>475809</v>
+        <v>475740</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9870105217388622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9741009950308213</v>
+        <v>0.9719448841541094</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9955863123655155</v>
+        <v>0.9954424310679851</v>
       </c>
     </row>
     <row r="18">
@@ -2553,19 +2553,19 @@
         <v>11820</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6492</v>
+        <v>5845</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22319</v>
+        <v>20814</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03535316543796469</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01941678920004313</v>
+        <v>0.01748229618355766</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06675672922359113</v>
+        <v>0.06225548028848889</v>
       </c>
     </row>
     <row r="20">
@@ -2582,19 +2582,19 @@
         <v>322510</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>312011</v>
+        <v>313516</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>327838</v>
+        <v>328485</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9646468345620353</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9332432707764081</v>
+        <v>0.9377445197115112</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9805832107999568</v>
+        <v>0.9825177038164423</v>
       </c>
     </row>
     <row r="21">
@@ -2644,19 +2644,19 @@
         <v>17216</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10963</v>
+        <v>10873</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24684</v>
+        <v>25344</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06698771476510904</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0426567826477334</v>
+        <v>0.04230738697558602</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09604668858325235</v>
+        <v>0.09861365222787467</v>
       </c>
     </row>
     <row r="23">
@@ -2673,19 +2673,19 @@
         <v>239782</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>232314</v>
+        <v>231654</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>246035</v>
+        <v>246125</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.933012285234891</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9039533114167478</v>
+        <v>0.9013863477721255</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.957343217352267</v>
+        <v>0.957692613024414</v>
       </c>
     </row>
     <row r="24">
@@ -2735,19 +2735,19 @@
         <v>37734</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27008</v>
+        <v>27576</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51063</v>
+        <v>50949</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01111660776788449</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00795663170362374</v>
+        <v>0.008124139005835728</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01504343890446197</v>
+        <v>0.01500994374347743</v>
       </c>
     </row>
     <row r="26">
@@ -2764,19 +2764,19 @@
         <v>3356616</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3343287</v>
+        <v>3343401</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3367342</v>
+        <v>3366774</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9888833922321155</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9849565610955381</v>
+        <v>0.9849900562565225</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9920433682963763</v>
+        <v>0.9918758609941642</v>
       </c>
     </row>
     <row r="27">
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7414</v>
+        <v>6829</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002192652915387474</v>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01199170021759881</v>
+        <v>0.01104559457939218</v>
       </c>
     </row>
     <row r="11">
@@ -3126,7 +3126,7 @@
         <v>616872</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610814</v>
+        <v>611399</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>618228</v>
@@ -3135,7 +3135,7 @@
         <v>0.9978073470846127</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9880082997824013</v>
+        <v>0.9889544054206078</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3188,19 +3188,19 @@
         <v>3284</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1093</v>
+        <v>754</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8398</v>
+        <v>8164</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004731120787084335</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001574086889333374</v>
+        <v>0.001086280343753987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01209742914557023</v>
+        <v>0.01175943368517502</v>
       </c>
     </row>
     <row r="14">
@@ -3217,19 +3217,19 @@
         <v>690939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>685825</v>
+        <v>686059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>693130</v>
+        <v>693469</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9952688792129157</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9879025708544296</v>
+        <v>0.9882405663148248</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9984259131106665</v>
+        <v>0.9989137196562461</v>
       </c>
     </row>
     <row r="15">
@@ -3279,19 +3279,19 @@
         <v>5092</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2217</v>
+        <v>2159</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11140</v>
+        <v>10315</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008403889589385514</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003657895278166239</v>
+        <v>0.003562718200325087</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01838353498474833</v>
+        <v>0.01702316267295927</v>
       </c>
     </row>
     <row r="17">
@@ -3308,19 +3308,19 @@
         <v>600873</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>594825</v>
+        <v>595650</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>603748</v>
+        <v>603806</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9915961104106146</v>
+        <v>0.9915961104106148</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9816164650152525</v>
+        <v>0.9829768373270411</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9963421047218339</v>
+        <v>0.9964372817996751</v>
       </c>
     </row>
     <row r="18">
@@ -3370,19 +3370,19 @@
         <v>9448</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5406</v>
+        <v>5008</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15542</v>
+        <v>15209</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02335854180488303</v>
+        <v>0.02335854180488304</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01336455061459917</v>
+        <v>0.01238164883662838</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03842494916832515</v>
+        <v>0.03760093004695868</v>
       </c>
     </row>
     <row r="20">
@@ -3399,19 +3399,19 @@
         <v>395028</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>388934</v>
+        <v>389267</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>399070</v>
+        <v>399468</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9766414581951169</v>
+        <v>0.9766414581951172</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.961575050831675</v>
+        <v>0.9623990699530421</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9866354493854007</v>
+        <v>0.9876183511633717</v>
       </c>
     </row>
     <row r="21">
@@ -3461,19 +3461,19 @@
         <v>16743</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11594</v>
+        <v>11683</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24266</v>
+        <v>24859</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05413096425197453</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03748401510173668</v>
+        <v>0.03776936894199992</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07845240821297191</v>
+        <v>0.08036780657278493</v>
       </c>
     </row>
     <row r="23">
@@ -3490,19 +3490,19 @@
         <v>292569</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>285046</v>
+        <v>284453</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>297718</v>
+        <v>297629</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9458690357480255</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9215475917870282</v>
+        <v>0.9196321934272151</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9625159848982632</v>
+        <v>0.962230631058</v>
       </c>
     </row>
     <row r="24">
@@ -3552,19 +3552,19 @@
         <v>35924</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26179</v>
+        <v>25931</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47136</v>
+        <v>47006</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01023063545159232</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007455330612547365</v>
+        <v>0.007384729388097846</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01342369776924862</v>
+        <v>0.01338683341780855</v>
       </c>
     </row>
     <row r="26">
@@ -3581,19 +3581,19 @@
         <v>3475468</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3464256</v>
+        <v>3464386</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3485213</v>
+        <v>3485461</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9897693645484076</v>
+        <v>0.9897693645484077</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9865763022307515</v>
+        <v>0.9866131665821913</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9925446693874527</v>
+        <v>0.992615270611902</v>
       </c>
     </row>
     <row r="27">
